--- a/AMZ/Code/20180312_resultDataAmount.xlsx
+++ b/AMZ/Code/20180312_resultDataAmount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\ML4Amazon\code\PackageCode\ForUs\StandardCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D18AB8-CEAC-4C58-AD78-54D77324C630}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7711EC-EAE9-48DD-A356-39259388791F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RandomSplit" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>A13V1IB3VIYZZH</t>
   </si>
@@ -55,10 +55,13 @@
     <t>XGB</t>
   </si>
   <si>
-    <t>Size:</t>
+    <t>Time:</t>
   </si>
   <si>
-    <t>Time:</t>
+    <t>Rows:</t>
+  </si>
+  <si>
+    <t>XMLs:</t>
   </si>
 </sst>
 </file>
@@ -307,16 +310,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,22 +331,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -425,336 +428,6 @@
         <i val="0"/>
         <u/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1066,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:W20"/>
+  <dimension ref="D1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:W20"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,105 +753,105 @@
   <sheetData>
     <row r="1" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="22">
         <v>10</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18">
+      <c r="G2" s="23"/>
+      <c r="H2" s="22">
         <v>20</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18">
+      <c r="I2" s="23"/>
+      <c r="J2" s="22">
         <v>30</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="18">
+      <c r="K2" s="23"/>
+      <c r="L2" s="22">
         <v>40</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20">
+      <c r="M2" s="23"/>
+      <c r="N2" s="24">
         <v>50</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="18">
+      <c r="O2" s="27"/>
+      <c r="P2" s="22">
         <v>60</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="18">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="22">
         <v>70</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="18">
+      <c r="S2" s="23"/>
+      <c r="T2" s="22">
         <v>80</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20">
+      <c r="U2" s="23"/>
+      <c r="V2" s="24">
         <v>90</v>
       </c>
-      <c r="W2" s="19"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="V3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="6">
@@ -1240,7 +913,7 @@
       </c>
     </row>
     <row r="5" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="15"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="7">
         <v>1</v>
       </c>
@@ -1300,7 +973,7 @@
       </c>
     </row>
     <row r="6" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="6">
@@ -1362,7 +1035,7 @@
       </c>
     </row>
     <row r="7" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="15"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="7">
         <v>1</v>
       </c>
@@ -1422,7 +1095,7 @@
       </c>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="6">
@@ -1484,7 +1157,7 @@
       </c>
     </row>
     <row r="9" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="15"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="7">
         <v>1</v>
       </c>
@@ -1544,7 +1217,7 @@
       </c>
     </row>
     <row r="10" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="6">
@@ -1606,7 +1279,7 @@
       </c>
     </row>
     <row r="11" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="15"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="7">
         <v>1</v>
       </c>
@@ -1666,7 +1339,7 @@
       </c>
     </row>
     <row r="12" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="6">
@@ -1728,7 +1401,7 @@
       </c>
     </row>
     <row r="13" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="15"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="7">
         <v>1</v>
       </c>
@@ -1788,7 +1461,7 @@
       </c>
     </row>
     <row r="14" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="25" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="6">
@@ -1850,7 +1523,7 @@
       </c>
     </row>
     <row r="15" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="15"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="7">
         <v>1</v>
       </c>
@@ -1910,7 +1583,7 @@
       </c>
     </row>
     <row r="16" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="6">
@@ -1972,7 +1645,7 @@
       </c>
     </row>
     <row r="17" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="15"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="7">
         <v>1</v>
       </c>
@@ -2033,7 +1706,7 @@
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="12">
         <v>12187</v>
@@ -2065,38 +1738,75 @@
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="F20" s="12">
+        <v>5633</v>
+      </c>
+      <c r="H20" s="12">
+        <v>11265</v>
+      </c>
+      <c r="J20" s="12">
+        <v>16897</v>
+      </c>
+      <c r="L20" s="12">
+        <v>22530</v>
+      </c>
+      <c r="N20" s="12">
+        <v>28163</v>
+      </c>
+      <c r="P20" s="12">
+        <v>33795</v>
+      </c>
+      <c r="R20" s="12">
+        <v>39427</v>
+      </c>
+      <c r="T20" s="12">
+        <v>45060</v>
+      </c>
+      <c r="V20" s="12">
+        <v>50693</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <v>58.68</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>139.27000000000001</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>164.57</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>202.49</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>234.03</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <v>259.91000000000003</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <v>287.54000000000002</v>
       </c>
-      <c r="T20">
+      <c r="T21">
         <v>314.70999999999998</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>341.32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="D4:D5"/>
@@ -2108,29 +1818,24 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5 H5 J5 L5 N5 P5 R5 T5 V5">
-    <cfRule type="aboveAverage" dxfId="10" priority="6"/>
+    <cfRule type="aboveAverage" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 H7 J7 L7 N7 P7 R7 T7 V7">
-    <cfRule type="aboveAverage" dxfId="9" priority="5"/>
+    <cfRule type="aboveAverage" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 H9 J9 L9 N9 P9 R9 T9 V9">
-    <cfRule type="aboveAverage" dxfId="8" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 H11 J11 L11 N11 P11 R11 T11 V11">
-    <cfRule type="aboveAverage" dxfId="7" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 H15 J15 L15 N15 P15 R15 T15 V15">
-    <cfRule type="aboveAverage" dxfId="6" priority="2"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17 H17 J17 L17 N17 P17 R17 T17 V17">
-    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2139,119 +1844,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D1:W20"/>
+  <dimension ref="D1:W21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:W20"/>
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="22">
         <v>10</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18">
+      <c r="G2" s="23"/>
+      <c r="H2" s="22">
         <v>20</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18">
+      <c r="I2" s="23"/>
+      <c r="J2" s="22">
         <v>30</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="18">
+      <c r="K2" s="23"/>
+      <c r="L2" s="22">
         <v>40</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20">
+      <c r="M2" s="23"/>
+      <c r="N2" s="24">
         <v>50</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="18">
+      <c r="O2" s="27"/>
+      <c r="P2" s="22">
         <v>60</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="18">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="22">
         <v>70</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="18">
+      <c r="S2" s="23"/>
+      <c r="T2" s="22">
         <v>80</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20">
+      <c r="U2" s="23"/>
+      <c r="V2" s="24">
         <v>90</v>
       </c>
-      <c r="W2" s="19"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="V3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="6">
@@ -2313,7 +2018,7 @@
       </c>
     </row>
     <row r="5" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="15"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="7">
         <v>1</v>
       </c>
@@ -2373,7 +2078,7 @@
       </c>
     </row>
     <row r="6" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="6">
@@ -2435,7 +2140,7 @@
       </c>
     </row>
     <row r="7" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="15"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="7">
         <v>1</v>
       </c>
@@ -2495,7 +2200,7 @@
       </c>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="6">
@@ -2557,7 +2262,7 @@
       </c>
     </row>
     <row r="9" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="15"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="7">
         <v>1</v>
       </c>
@@ -2617,7 +2322,7 @@
       </c>
     </row>
     <row r="10" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="6">
@@ -2679,7 +2384,7 @@
       </c>
     </row>
     <row r="11" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="15"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="7">
         <v>1</v>
       </c>
@@ -2739,7 +2444,7 @@
       </c>
     </row>
     <row r="12" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="6">
@@ -2801,7 +2506,7 @@
       </c>
     </row>
     <row r="13" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="15"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="7">
         <v>1</v>
       </c>
@@ -2861,7 +2566,7 @@
       </c>
     </row>
     <row r="14" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="25" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="6">
@@ -2923,7 +2628,7 @@
       </c>
     </row>
     <row r="15" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="15"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="7">
         <v>1</v>
       </c>
@@ -2983,7 +2688,7 @@
       </c>
     </row>
     <row r="16" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="6">
@@ -3045,7 +2750,7 @@
       </c>
     </row>
     <row r="17" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="15"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="7">
         <v>1</v>
       </c>
@@ -3106,7 +2811,7 @@
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="12">
         <v>12213</v>
@@ -3138,38 +2843,75 @@
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="F20" s="12">
+        <v>5633</v>
+      </c>
+      <c r="H20" s="12">
+        <v>11265</v>
+      </c>
+      <c r="J20" s="12">
+        <v>16897</v>
+      </c>
+      <c r="L20" s="12">
+        <v>22530</v>
+      </c>
+      <c r="N20" s="12">
+        <v>28163</v>
+      </c>
+      <c r="P20" s="12">
+        <v>33795</v>
+      </c>
+      <c r="R20" s="12">
+        <v>39427</v>
+      </c>
+      <c r="T20" s="12">
+        <v>45060</v>
+      </c>
+      <c r="V20" s="12">
+        <v>50693</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <v>57.18</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>122.42</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>164.52</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>205.73</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>235.98</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <v>264.35000000000002</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <v>291.48</v>
       </c>
-      <c r="T20">
+      <c r="T21">
         <v>312.43</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>342.28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="D4:D5"/>
@@ -3181,29 +2923,24 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5 H5 J5 L5 N5 P5 R5 T5 V5">
-    <cfRule type="aboveAverage" dxfId="45" priority="6"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 H7 J7 L7 N7 P7 R7 T7 V7">
-    <cfRule type="aboveAverage" dxfId="44" priority="5"/>
+    <cfRule type="aboveAverage" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 H9 J9 L9 N9 P9 R9 T9 V9">
-    <cfRule type="aboveAverage" dxfId="43" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 H11 J11 L11 N11 P11 R11 T11 V11">
-    <cfRule type="aboveAverage" dxfId="42" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 H15 J15 L15 N15 P15 R15 T15 V15">
-    <cfRule type="aboveAverage" dxfId="41" priority="2"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17 H17 J17 L17 N17 P17 R17 T17 V17">
-    <cfRule type="aboveAverage" dxfId="35" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
